--- a/app/config/tables/eonasdan/forms/eonasdan/eonasdan.xlsx
+++ b/app/config/tables/eonasdan/forms/eonasdan/eonasdan.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\toolsuite\app-designer\app\config\tables\eonasdan\forms\eonasdan\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5640" yWindow="2060" windowWidth="24000" windowHeight="12740"/>
+    <workbookView xWindow="5642" yWindow="2055" windowWidth="23996" windowHeight="12737" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -46,12 +51,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>display.text</t>
-  </si>
-  <si>
-    <t>display.hint</t>
-  </si>
-  <si>
     <t>calculation</t>
   </si>
   <si>
@@ -61,18 +60,12 @@
     <t>constraint</t>
   </si>
   <si>
-    <t>constraint_message</t>
-  </si>
-  <si>
     <t>required</t>
   </si>
   <si>
     <t>hideInContents</t>
   </si>
   <si>
-    <t>display.title</t>
-  </si>
-  <si>
     <t>example1</t>
   </si>
   <si>
@@ -134,12 +127,24 @@
   </si>
   <si>
     <t>HH:mm</t>
+  </si>
+  <si>
+    <t>display.prompt.text</t>
+  </si>
+  <si>
+    <t>display.hint.text</t>
+  </si>
+  <si>
+    <t>display.constraint_message.text</t>
+  </si>
+  <si>
+    <t>display.title.text</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -255,6 +260,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -549,24 +557,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.1640625" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" customWidth="1"/>
-    <col min="8" max="8" width="10.5" customWidth="1"/>
-    <col min="9" max="9" width="11.5" customWidth="1"/>
-    <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" customWidth="1"/>
-    <col min="14" max="14" width="19" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" customWidth="1"/>
+    <col min="8" max="13" width="18.33203125" customWidth="1"/>
+    <col min="14" max="14" width="24.21875" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" customWidth="1"/>
+    <col min="16" max="16" width="26" customWidth="1"/>
+    <col min="17" max="19" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -593,73 +603,73 @@
         <v>7</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="P1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="S1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="2" t="s">
+      <c r="J2" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" t="s">
         <v>33</v>
-      </c>
-      <c r="I3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="G4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" t="s">
-        <v>32</v>
-      </c>
-      <c r="N4" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -677,67 +687,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.1640625" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B3" s="5">
         <v>20141120</v>
       </c>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B6" s="5" t="b">
         <v>1</v>

--- a/app/config/tables/eonasdan/forms/eonasdan/eonasdan.xlsx
+++ b/app/config/tables/eonasdan/forms/eonasdan/eonasdan.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\toolsuite\app-designer\app\config\tables\eonasdan\forms\eonasdan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ODKWorkspace\app-designer\app\config\tables\eonasdan\forms\eonasdan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5642" yWindow="2055" windowWidth="23996" windowHeight="12737" activeTab="1"/>
+    <workbookView xWindow="5640" yWindow="2055" windowWidth="24000" windowHeight="12735"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>branch_label</t>
   </si>
@@ -139,6 +139,15 @@
   </si>
   <si>
     <t>display.title.text</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>example0</t>
+  </si>
+  <si>
+    <t>Birthday</t>
   </si>
 </sst>
 </file>
@@ -555,28 +564,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.109375" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.77734375" customWidth="1"/>
-    <col min="8" max="13" width="18.33203125" customWidth="1"/>
-    <col min="14" max="14" width="24.21875" customWidth="1"/>
-    <col min="15" max="15" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="13" width="18.28515625" customWidth="1"/>
+    <col min="14" max="14" width="24.28515625" customWidth="1"/>
+    <col min="15" max="15" width="18.28515625" customWidth="1"/>
     <col min="16" max="16" width="26" customWidth="1"/>
-    <col min="17" max="19" width="18.33203125" customWidth="1"/>
+    <col min="17" max="19" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -633,42 +642,69 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="G2" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="1"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I3" t="s">
         <v>13</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="G3" t="s">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
         <v>29</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I4" t="s">
         <v>25</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J4" t="s">
         <v>27</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="G4" t="s">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
         <v>30</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I5" t="s">
         <v>26</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J5" t="s">
         <v>28</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -687,18 +723,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.109375" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
@@ -709,7 +745,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
@@ -718,7 +754,7 @@
       </c>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
@@ -727,7 +763,7 @@
       </c>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
@@ -736,7 +772,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>22</v>
       </c>
@@ -745,7 +781,7 @@
       </c>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>24</v>
       </c>

--- a/app/config/tables/eonasdan/forms/eonasdan/eonasdan.xlsx
+++ b/app/config/tables/eonasdan/forms/eonasdan/eonasdan.xlsx
@@ -141,13 +141,13 @@
     <t>display.title.text</t>
   </si>
   <si>
-    <t>birthday</t>
-  </si>
-  <si>
     <t>example0</t>
   </si>
   <si>
     <t>Birthday</t>
+  </si>
+  <si>
+    <t>birthdate</t>
   </si>
 </sst>
 </file>
@@ -320,7 +320,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -355,7 +355,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -567,7 +567,7 @@
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,14 +650,14 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>

--- a/app/config/tables/eonasdan/forms/eonasdan/eonasdan.xlsx
+++ b/app/config/tables/eonasdan/forms/eonasdan/eonasdan.xlsx
@@ -5,146 +5,127 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Export Summary" sheetId="1" r:id="rId4"/>
-    <sheet name="survey" sheetId="2" r:id="rId5"/>
-    <sheet name="settings" sheetId="3" r:id="rId6"/>
+    <sheet name="survey" sheetId="1" r:id="rId4"/>
+    <sheet name="settings" sheetId="2" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
-  <si>
-    <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
-  </si>
-  <si>
-    <t>Numbers Sheet Name</t>
-  </si>
-  <si>
-    <t>Numbers Table Name</t>
-  </si>
-  <si>
-    <t>Excel Worksheet Name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+  <si>
+    <t>branch_label</t>
+  </si>
+  <si>
+    <t>clause</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>screen.screen_type</t>
+  </si>
+  <si>
+    <t>screen.templatePath</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>values_list</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>display.prompt.text</t>
+  </si>
+  <si>
+    <t>display.hint.text</t>
+  </si>
+  <si>
+    <t>calculation</t>
+  </si>
+  <si>
+    <t>templatePath</t>
+  </si>
+  <si>
+    <t>inputAttributes.timeFormat</t>
+  </si>
+  <si>
+    <t>constraint</t>
+  </si>
+  <si>
+    <t>display.constraint_message.text</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>hideInContents</t>
+  </si>
+  <si>
+    <t>display.title.text</t>
+  </si>
+  <si>
+    <t>birth_date</t>
+  </si>
+  <si>
+    <t>example0</t>
+  </si>
+  <si>
+    <t>Birthday</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>example1</t>
+  </si>
+  <si>
+    <t>Date and Time</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>example2</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>YYYY/DD/MM</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>example3</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>HH:mm</t>
+  </si>
+  <si>
+    <t>setting_name</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>form_id</t>
+  </si>
+  <si>
+    <t>eonasdan</t>
+  </si>
+  <si>
+    <t>form_version</t>
   </si>
   <si>
     <t>survey</t>
-  </si>
-  <si>
-    <t>Table 1</t>
-  </si>
-  <si>
-    <t>branch_label</t>
-  </si>
-  <si>
-    <t>clause</t>
-  </si>
-  <si>
-    <t>condition</t>
-  </si>
-  <si>
-    <t>screen.screen_type</t>
-  </si>
-  <si>
-    <t>screen.templatePath</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>values_list</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>display.prompt.text</t>
-  </si>
-  <si>
-    <t>display.hint.text</t>
-  </si>
-  <si>
-    <t>calculation</t>
-  </si>
-  <si>
-    <t>templatePath</t>
-  </si>
-  <si>
-    <t>inputAttributes.timeFormat</t>
-  </si>
-  <si>
-    <t>constraint</t>
-  </si>
-  <si>
-    <t>display.constraint_message.text</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>hideInContents</t>
-  </si>
-  <si>
-    <t>display.title.text</t>
-  </si>
-  <si>
-    <t>birth_date</t>
-  </si>
-  <si>
-    <t>example0</t>
-  </si>
-  <si>
-    <t>Birthday</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>example1</t>
-  </si>
-  <si>
-    <t>Date and Time</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>example2</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>YYYY/DD/MM</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>example3</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>HH:mm</t>
-  </si>
-  <si>
-    <t>settings</t>
-  </si>
-  <si>
-    <t>setting_name</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>form_id</t>
-  </si>
-  <si>
-    <t>eonasdan</t>
-  </si>
-  <si>
-    <t>form_version</t>
   </si>
   <si>
     <t>DateTime Picker</t>
@@ -163,7 +144,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -172,23 +153,7 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
       <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="12"/>
-      <color indexed="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="14"/>
@@ -202,11 +167,11 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="14"/>
+      <color indexed="11"/>
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,18 +181,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="12"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -242,16 +195,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -261,59 +214,44 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -333,9 +271,6 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="015e88b1"/>
-      <rgbColor rgb="01eef3f4"/>
-      <rgbColor rgb="ff0000ff"/>
       <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ff222222"/>
@@ -489,9 +424,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -571,7 +506,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -599,10 +534,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -858,9 +793,9 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -1148,7 +1083,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1176,10 +1111,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1430,372 +1365,300 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="4" width="30.5547" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" ht="50" customHeight="1">
-      <c r="B3" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3"/>
-      <c r="D3"/>
-    </row>
-    <row r="7">
-      <c r="B7" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="4"/>
-      <c r="C10" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" t="s" s="3">
-        <v>38</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="4"/>
-      <c r="C12" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s" s="5">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B3:D3"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="D10" location="'survey'!R1C1" tooltip="" display="survey"/>
-    <hyperlink ref="D12" location="'settings'!R1C1" tooltip="" display="settings"/>
-  </hyperlinks>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66667" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.67188" style="6" customWidth="1"/>
-    <col min="2" max="2" width="12.1719" style="6" customWidth="1"/>
-    <col min="3" max="3" width="11.6719" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="6" customWidth="1"/>
-    <col min="5" max="5" width="15.6719" style="6" customWidth="1"/>
-    <col min="6" max="6" width="18.3516" style="6" customWidth="1"/>
-    <col min="7" max="7" width="10.6719" style="6" customWidth="1"/>
-    <col min="8" max="13" width="18.3516" style="6" customWidth="1"/>
-    <col min="14" max="14" width="24.3516" style="6" customWidth="1"/>
-    <col min="15" max="15" width="18.3516" style="6" customWidth="1"/>
-    <col min="16" max="16" width="26" style="6" customWidth="1"/>
-    <col min="17" max="19" width="18.3516" style="6" customWidth="1"/>
-    <col min="20" max="256" width="8.67188" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.67188" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1719" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6719" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6719" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.3516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6719" style="1" customWidth="1"/>
+    <col min="8" max="13" width="18.3516" style="1" customWidth="1"/>
+    <col min="14" max="14" width="24.3516" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.3516" style="1" customWidth="1"/>
+    <col min="16" max="16" width="26" style="1" customWidth="1"/>
+    <col min="17" max="19" width="18.3516" style="1" customWidth="1"/>
+    <col min="20" max="256" width="8.67188" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.65" customHeight="1">
-      <c r="A1" s="7"/>
-      <c r="B1" t="s" s="8">
+      <c r="A1" s="2"/>
+      <c r="B1" t="s" s="3">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s" s="3">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s" s="4">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s" s="4">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="C1" t="s" s="8">
+      <c r="I1" t="s" s="4">
         <v>7</v>
       </c>
-      <c r="D1" t="s" s="9">
+      <c r="J1" t="s" s="3">
         <v>8</v>
       </c>
-      <c r="E1" t="s" s="9">
+      <c r="K1" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="F1" t="s" s="9">
+      <c r="L1" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="G1" t="s" s="9">
+      <c r="M1" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="H1" t="s" s="9">
+      <c r="N1" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="I1" t="s" s="9">
+      <c r="O1" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="J1" t="s" s="8">
+      <c r="P1" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="K1" t="s" s="9">
+      <c r="Q1" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="L1" t="s" s="9">
+      <c r="R1" t="s" s="3">
         <v>16</v>
       </c>
-      <c r="M1" t="s" s="9">
+      <c r="S1" t="s" s="3">
         <v>17</v>
       </c>
-      <c r="N1" t="s" s="9">
+    </row>
+    <row r="2" ht="13.65" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="O1" t="s" s="9">
+      <c r="H2" s="5"/>
+      <c r="I2" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="P1" t="s" s="9">
+      <c r="J2" t="s" s="3">
         <v>20</v>
       </c>
-      <c r="Q1" t="s" s="9">
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+    </row>
+    <row r="3" ht="16" customHeight="1">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="R1" t="s" s="8">
+      <c r="H3" s="6"/>
+      <c r="I3" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="S1" t="s" s="8">
+      <c r="J3" t="s" s="7">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" ht="13.65" customHeight="1">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" t="s" s="9">
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+    </row>
+    <row r="4" ht="16" customHeight="1">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" t="s" s="9">
+      <c r="H4" s="6"/>
+      <c r="I4" t="s" s="7">
         <v>25</v>
       </c>
-      <c r="J2" t="s" s="8">
+      <c r="J4" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-    </row>
-    <row r="3" ht="16" customHeight="1">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" t="s" s="12">
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" t="s" s="12">
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+    </row>
+    <row r="5" ht="16" customHeight="1">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" t="s" s="7">
         <v>28</v>
       </c>
-      <c r="J3" t="s" s="12">
+      <c r="H5" s="6"/>
+      <c r="I5" t="s" s="7">
         <v>29</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-    </row>
-    <row r="4" ht="16" customHeight="1">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" t="s" s="12">
+      <c r="J5" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" t="s" s="12">
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" t="s" s="7">
         <v>31</v>
       </c>
-      <c r="J4" t="s" s="12">
-        <v>32</v>
-      </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" t="s" s="12">
-        <v>33</v>
-      </c>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-    </row>
-    <row r="5" ht="16" customHeight="1">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="H5" s="11"/>
-      <c r="I5" t="s" s="12">
-        <v>35</v>
-      </c>
-      <c r="J5" t="s" s="12">
-        <v>36</v>
-      </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" t="s" s="12">
-        <v>37</v>
-      </c>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
     </row>
     <row r="6" ht="16" customHeight="1">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
     </row>
     <row r="7" ht="16" customHeight="1">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
     </row>
     <row r="8" ht="16" customHeight="1">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
     </row>
     <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
     </row>
     <row r="10" ht="16" customHeight="1">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1806,7 +1669,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1814,108 +1677,108 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66667" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="29.1719" style="13" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="13" customWidth="1"/>
-    <col min="3" max="3" width="17.6719" style="13" customWidth="1"/>
-    <col min="4" max="5" width="8.67188" style="13" customWidth="1"/>
-    <col min="6" max="256" width="8.67188" style="13" customWidth="1"/>
+    <col min="1" max="1" width="29.1719" style="8" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="8" customWidth="1"/>
+    <col min="3" max="3" width="17.6719" style="8" customWidth="1"/>
+    <col min="4" max="5" width="8.67188" style="8" customWidth="1"/>
+    <col min="6" max="256" width="8.67188" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="14">
+      <c r="A1" t="s" s="9">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s" s="9">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" ht="16" customHeight="1">
+      <c r="A2" t="s" s="9">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s" s="9">
+        <v>35</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" ht="16" customHeight="1">
+      <c r="A3" t="s" s="9">
+        <v>36</v>
+      </c>
+      <c r="B3" s="11">
+        <v>20141120</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" ht="16" customHeight="1">
+      <c r="A4" t="s" s="9">
+        <v>37</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" t="s" s="9">
+        <v>38</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" ht="16" customHeight="1">
+      <c r="A5" t="s" s="9">
         <v>39</v>
       </c>
-      <c r="B1" t="s" s="14">
+      <c r="B5" t="s" s="9">
+        <v>35</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" ht="16" customHeight="1">
+      <c r="A6" t="s" s="12">
         <v>40</v>
       </c>
-      <c r="C1" t="s" s="14">
-        <v>23</v>
-      </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-    </row>
-    <row r="2" ht="16" customHeight="1">
-      <c r="A2" t="s" s="14">
-        <v>41</v>
-      </c>
-      <c r="B2" t="s" s="14">
-        <v>42</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" ht="16" customHeight="1">
-      <c r="A3" t="s" s="14">
-        <v>43</v>
-      </c>
-      <c r="B3" s="16">
-        <v>20141120</v>
-      </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" ht="16" customHeight="1">
-      <c r="A4" t="s" s="14">
-        <v>4</v>
-      </c>
-      <c r="B4" s="15"/>
-      <c r="C4" t="s" s="14">
-        <v>44</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" ht="16" customHeight="1">
-      <c r="A5" t="s" s="14">
-        <v>45</v>
-      </c>
-      <c r="B5" t="s" s="14">
-        <v>42</v>
-      </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" ht="16" customHeight="1">
-      <c r="A6" t="s" s="17">
-        <v>46</v>
-      </c>
-      <c r="B6" t="b" s="16">
+      <c r="B6" t="b" s="11">
         <v>1</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" ht="16" customHeight="1">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" ht="16" customHeight="1">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" ht="16" customHeight="1">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/config/tables/eonasdan/forms/eonasdan/eonasdan.xlsx
+++ b/app/config/tables/eonasdan/forms/eonasdan/eonasdan.xlsx
@@ -1,18 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac-user/Desktop/ODK-X/From GitHub/app-designer/app/config/tables/eonasdan/forms/eonasdan/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A2414D-04D8-A444-AB47-FF8392615E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="15960" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="survey" sheetId="1" r:id="rId4"/>
-    <sheet name="settings" sheetId="2" r:id="rId5"/>
+    <sheet name="survey" sheetId="1" r:id="rId1"/>
+    <sheet name="settings" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>branch_label</t>
   </si>
@@ -135,28 +144,33 @@
   </si>
   <si>
     <t>showFooter</t>
+  </si>
+  <si>
+    <t>ethiopian_calendar_picker</t>
+  </si>
+  <si>
+    <t>example4</t>
+  </si>
+  <si>
+    <t>islamic_calendar_picker</t>
+  </si>
+  <si>
+    <t>example5</t>
+  </si>
+  <si>
+    <t>Ethiopian Calendar</t>
+  </si>
+  <si>
+    <t>Islamic Calendar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -164,11 +178,19 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="11"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -185,7 +207,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -208,52 +230,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -262,25 +279,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff222222"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF222222"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -406,7 +483,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -415,7 +492,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -424,7 +501,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -498,7 +575,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -506,7 +583,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -525,7 +602,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -555,7 +632,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -581,7 +658,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -607,7 +684,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -633,7 +710,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -659,7 +736,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -685,7 +762,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -711,7 +788,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -737,7 +814,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -763,7 +840,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -776,9 +853,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -793,7 +876,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -801,7 +884,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -820,7 +903,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -846,7 +929,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -872,7 +955,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -898,7 +981,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -924,7 +1007,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -950,7 +1033,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -976,7 +1059,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1002,7 +1085,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1028,7 +1111,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1054,7 +1137,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1067,9 +1150,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1083,7 +1172,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1102,7 +1191,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1132,7 +1221,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1158,7 +1247,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1184,7 +1273,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1210,7 +1299,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1236,7 +1325,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1262,7 +1351,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1288,7 +1377,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1314,7 +1403,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1340,7 +1429,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1353,111 +1442,120 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66667" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.67188" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1719" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6719" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6719" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6719" style="1" customWidth="1"/>
-    <col min="8" max="13" width="18.3516" style="1" customWidth="1"/>
-    <col min="14" max="14" width="24.3516" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.3516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="1" customWidth="1"/>
+    <col min="8" max="13" width="18.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="24.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" style="1" customWidth="1"/>
     <col min="16" max="16" width="26" style="1" customWidth="1"/>
-    <col min="17" max="19" width="18.3516" style="1" customWidth="1"/>
-    <col min="20" max="256" width="8.67188" style="1" customWidth="1"/>
+    <col min="17" max="19" width="18.33203125" style="1" customWidth="1"/>
+    <col min="20" max="256" width="8.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.65" customHeight="1">
+    <row r="1" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s" s="4">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s" s="4">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s" s="4">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s" s="3">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s" s="4">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s" s="4">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s" s="4">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s" s="4">
+      <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s" s="4">
+      <c r="O1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s" s="4">
+      <c r="P1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s" s="4">
+      <c r="Q1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s" s="3">
+      <c r="R1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s" s="3">
+      <c r="S1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" ht="13.65" customHeight="1">
+    <row r="2" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" t="s" s="4">
+      <c r="G2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H2" s="5"/>
-      <c r="I2" t="s" s="4">
+      <c r="I2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J2" t="s" s="3">
+      <c r="J2" s="3" t="s">
         <v>20</v>
       </c>
       <c r="K2" s="5"/>
@@ -1470,21 +1568,21 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
     </row>
-    <row r="3" ht="16" customHeight="1">
+    <row r="3" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="G3" t="s" s="7">
+      <c r="G3" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H3" s="6"/>
-      <c r="I3" t="s" s="7">
+      <c r="I3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J3" t="s" s="7">
+      <c r="J3" s="7" t="s">
         <v>23</v>
       </c>
       <c r="K3" s="6"/>
@@ -1497,27 +1595,27 @@
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
     </row>
-    <row r="4" ht="16" customHeight="1">
+    <row r="4" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" t="s" s="7">
+      <c r="G4" s="7" t="s">
         <v>24</v>
       </c>
       <c r="H4" s="6"/>
-      <c r="I4" t="s" s="7">
+      <c r="I4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J4" t="s" s="7">
+      <c r="J4" s="7" t="s">
         <v>26</v>
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
-      <c r="N4" t="s" s="7">
+      <c r="N4" s="7" t="s">
         <v>27</v>
       </c>
       <c r="O4" s="6"/>
@@ -1526,27 +1624,27 @@
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
     </row>
-    <row r="5" ht="16" customHeight="1">
+    <row r="5" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" t="s" s="7">
+      <c r="G5" s="7" t="s">
         <v>28</v>
       </c>
       <c r="H5" s="6"/>
-      <c r="I5" t="s" s="7">
+      <c r="I5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J5" t="s" s="7">
+      <c r="J5" s="7" t="s">
         <v>30</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
-      <c r="N5" t="s" s="7">
+      <c r="N5" s="7" t="s">
         <v>31</v>
       </c>
       <c r="O5" s="6"/>
@@ -1555,17 +1653,23 @@
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
     </row>
-    <row r="6" ht="16" customHeight="1">
+    <row r="6" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="G6" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="I6" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>45</v>
+      </c>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
@@ -1576,17 +1680,23 @@
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
     </row>
-    <row r="7" ht="16" customHeight="1">
+    <row r="7" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="G7" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
+      <c r="I7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
@@ -1597,7 +1707,7 @@
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
     </row>
-    <row r="8" ht="16" customHeight="1">
+    <row r="8" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -1618,7 +1728,7 @@
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
     </row>
-    <row r="9" ht="16" customHeight="1">
+    <row r="9" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1639,7 +1749,7 @@
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
     </row>
-    <row r="10" ht="16" customHeight="1">
+    <row r="10" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1662,7 +1772,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1670,46 +1780,45 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66667" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.1719" style="8" customWidth="1"/>
+    <col min="1" max="1" width="29.1640625" style="8" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="8" customWidth="1"/>
-    <col min="3" max="3" width="17.6719" style="8" customWidth="1"/>
-    <col min="4" max="5" width="8.67188" style="8" customWidth="1"/>
-    <col min="6" max="256" width="8.67188" style="8" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="8" customWidth="1"/>
+    <col min="4" max="256" width="8.6640625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="9">
+    <row r="1" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B1" t="s" s="9">
+      <c r="B1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C1" t="s" s="9">
+      <c r="C1" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" ht="16" customHeight="1">
-      <c r="A2" t="s" s="9">
+    <row r="2" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B2" t="s" s="9">
+      <c r="B2" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" ht="16" customHeight="1">
-      <c r="A3" t="s" s="9">
+    <row r="3" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B3" s="11">
@@ -1719,61 +1828,61 @@
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" ht="16" customHeight="1">
-      <c r="A4" t="s" s="9">
+    <row r="4" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="10"/>
-      <c r="C4" t="s" s="9">
+      <c r="C4" s="9" t="s">
         <v>38</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" ht="16" customHeight="1">
-      <c r="A5" t="s" s="9">
+    <row r="5" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B5" t="s" s="9">
+      <c r="B5" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" ht="16" customHeight="1">
-      <c r="A6" t="s" s="12">
+    <row r="6" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B6" t="b" s="11">
+      <c r="B6" s="11" t="b">
         <v>1</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" ht="16" customHeight="1">
+    <row r="7" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" ht="16" customHeight="1">
+    <row r="8" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" ht="16" customHeight="1">
+    <row r="9" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" ht="16" customHeight="1">
+    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1782,7 +1891,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
